--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.101937960109198</v>
+        <v>0.8592715581566811</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1.105098924108501</v>
+        <v>0.8454139596387297</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1.107034227071176</v>
+        <v>0.8417150343062385</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>1.15301740025674</v>
+        <v>0.8550688176140749</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1.078429708425278</v>
+        <v>0.8488930071618396</v>
       </c>
     </row>
   </sheetData>
